--- a/dashboard/sakila_dashboard.xlsx
+++ b/dashboard/sakila_dashboard.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\Automatizaci-n-con-SQL-Python-y-Excel\dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46D5367-B2E6-4CAC-85D3-DE9502FE7B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03E2E3BC-4DEE-4892-8C50-B88AACE3EB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4032,10 +4032,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4048,8 +4049,27 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe Fluent Icons"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Segoe Fluent Icons"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Segoe Fluent Icons"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4059,6 +4079,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4090,7 +4116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4112,14 +4138,20 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4141,239 +4173,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="es-ES"/>
-              <a:t>Top 10 países por ingresos</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="1"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0"/>
-          <c:y val="3.2337962962962964E-2"/>
-          <c:w val="0.78420597222222221"/>
-          <c:h val="0.93532407407407403"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$A$8:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>India</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>China</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>United States</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Japan</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Mexico</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Brazil</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Russian Federation</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Philippines</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Turkey</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Nigeria</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$B$8:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>6628.2800000000007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5798.7400000000007</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4110.3200000000006</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3470.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3307.04</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3200.52</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3045.87</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2381.3200000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1662.12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1511.48</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-25AC-43A8-B61B-4391BC556441}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="10"/>
-        <c:axId val="100"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="10"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-ES"/>
-                  <a:t>País</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="1"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="100"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-ES"/>
-                  <a:t>Ingresos</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="1"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="10"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4384,88 +4183,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US">
-                <a:solidFill>
-                  <a:srgbClr val="DD5A13"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>total_paid</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> y </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US">
-                <a:solidFill>
-                  <a:srgbClr val="DD5A13"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>avg_payment</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> parece estar muy correlacionado.</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17975976774539221"/>
+          <c:y val="0.17432937098153783"/>
+          <c:w val="0.73617818421950421"/>
+          <c:h val="0.66883482149112805"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -4488,31 +4218,74 @@
               <a:noFill/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="7"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ED7331"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="51000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="80000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="93000"/>
+                      <a:satMod val="130000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:shade val="94000"/>
+                      <a:satMod val="135000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="16200000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="solid"/>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="35000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront">
+                  <a:rot lat="0" lon="0" rev="0"/>
+                </a:camera>
+                <a:lightRig rig="threePt" dir="t">
+                  <a:rot lat="0" lon="0" rev="1200000"/>
+                </a:lightRig>
+              </a:scene3d>
+              <a:sp3d>
+                <a:bevelT w="63500" h="25400"/>
+              </a:sp3d>
             </c:spPr>
           </c:marker>
           <c:trendline>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:srgbClr val="ED7331"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="sysDash"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -8161,9 +7934,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -8178,11 +7951,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -8210,11 +7982,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -8234,12 +8005,10 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -8250,9 +8019,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -8278,9 +8046,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -8295,11 +8063,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -8327,11 +8094,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -8351,12 +8117,10 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -8367,9 +8131,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -8404,19 +8167,36 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
-    <a:effectLst/>
+    <a:effectLst>
+      <a:innerShdw blurRad="266700" dist="50800" dir="13500000">
+        <a:prstClr val="black">
+          <a:alpha val="50000"/>
+        </a:prstClr>
+      </a:innerShdw>
+    </a:effectLst>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
@@ -8433,6 +8213,812 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="107"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="7"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.4617102396514162E-2"/>
+          <c:y val="3.2337847222222223E-2"/>
+          <c:w val="0.78420597222222221"/>
+          <c:h val="0.93532407407407403"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="1"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="42000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="42000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0750-47DC-93EB-6E29A6C0293C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="55000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="55000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0750-47DC-93EB-6E29A6C0293C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="68000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="68000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0750-47DC-93EB-6E29A6C0293C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="80000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0750-47DC-93EB-6E29A6C0293C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:shade val="93000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent5">
+                    <a:shade val="93000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-0750-47DC-93EB-6E29A6C0293C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent5">
+                    <a:tint val="94000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-0750-47DC-93EB-6E29A6C0293C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:tint val="81000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent5">
+                    <a:tint val="81000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-0750-47DC-93EB-6E29A6C0293C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:tint val="69000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent5">
+                    <a:tint val="69000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-0750-47DC-93EB-6E29A6C0293C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:tint val="56000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent5">
+                    <a:tint val="56000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-0750-47DC-93EB-6E29A6C0293C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:tint val="43000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent5">
+                    <a:tint val="43000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-583F-4CE5-9987-030B83BC7FF8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.0741972418484364E-4"/>
+                  <c:y val="4.0324885031587591E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-583F-4CE5-9987-030B83BC7FF8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-ES"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Dashboard!$A$8:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>India</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>China</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>United States</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Japan</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Mexico</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Brazil</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Russian Federation</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Philippines</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Turkey</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Nigeria</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Dashboard!$B$8:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6628.2800000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5798.7400000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4110.3200000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3470.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3307.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3200.52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3045.87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2381.3200000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1662.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1511.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-25AC-43A8-B61B-4391BC556441}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="315"/>
+        <c:overlap val="-40"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>País</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Ingresos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="1"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst>
+      <a:outerShdw blurRad="254000" dist="38100" dir="17340000" sx="102000" sy="102000" algn="tl" rotWithShape="0">
+        <a:prstClr val="black">
+          <a:alpha val="55000"/>
+        </a:prstClr>
+      </a:outerShdw>
+    </a:effectLst>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -8458,17 +9044,149 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:shade val="51000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="80000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="93000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="94000"/>
+                  <a:satMod val="135000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="16200000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -8488,177 +9206,8 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="2"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="3"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -8683,16 +9232,103 @@
       <c:pivotFmt>
         <c:idx val="4"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:shade val="51000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="80000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="93000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="94000"/>
+                  <a:satMod val="135000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="16200000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -8712,9 +9348,8 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -8739,16 +9374,103 @@
       <c:pivotFmt>
         <c:idx val="5"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:shade val="51000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="80000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="93000"/>
+                  <a:satMod val="130000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:shade val="94000"/>
+                  <a:satMod val="135000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="16200000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </c:spPr>
         <c:marker>
-          <c:symbol val="none"/>
+          <c:symbol val="circle"/>
+          <c:size val="6"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent3">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -8768,9 +9490,8 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -8814,13 +9535,50 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -9509,13 +10267,50 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -10204,13 +10999,50 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent3">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
@@ -10892,8 +11724,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
         <c:axId val="759324432"/>
         <c:axId val="759327344"/>
       </c:barChart>
@@ -10910,11 +11742,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -10928,9 +11760,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -10959,9 +11790,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -10987,9 +11818,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -11029,9 +11859,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -11055,17 +11884,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -11144,6 +11984,12 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
+  <a:schemeClr val="accent5"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11184,62 +12030,66 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -11248,9 +12098,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -11269,14 +12118,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -11285,20 +12126,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -11307,13 +12148,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -11325,9 +12166,89 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -11335,12 +12256,483 @@
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="213">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -11364,21 +12756,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -11388,20 +12777,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11413,14 +12801,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11432,14 +12819,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11451,30 +12837,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -11484,16 +12875,29 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -11503,14 +12907,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="lt1">
             <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11522,14 +12925,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11541,27 +12943,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -11569,9 +12970,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -11581,14 +12981,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11600,12 +12999,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -11614,14 +13012,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="25400" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -11630,9 +13029,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -11642,17 +13040,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11664,22 +13063,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -11687,48 +13074,40 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="209">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11736,26 +13115,34 @@
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:chartArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -11764,9 +13151,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -11785,14 +13171,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -11801,35 +13179,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="34925" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -11841,30 +13219,31 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -11880,21 +13259,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -11904,20 +13280,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -11928,17 +13304,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -11947,14 +13323,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11966,28 +13341,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11999,17 +13368,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -12018,17 +13386,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -12037,17 +13405,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -12056,27 +13423,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+  <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -12084,11 +13450,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -12096,14 +13472,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -12115,12 +13491,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -12129,14 +13512,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -12145,9 +13527,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -12157,7 +13538,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -12165,9 +13546,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -12178,9 +13559,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -12190,63 +13570,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>276709</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>113504</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="7200000" cy="4320000"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>107552</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>145143</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>60477</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>369134</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>157238</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12265,7 +13608,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12273,15 +13616,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>307076</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>110092</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>113553</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85901</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>407159</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1338493</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -12318,8 +13661,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2520008" y="7249928"/>
-              <a:ext cx="1822411" cy="2548948"/>
+              <a:off x="113553" y="3363711"/>
+              <a:ext cx="1829702" cy="2458483"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -12351,16 +13694,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>559673</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>9439</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>547578</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>142486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>546026</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>111712</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>533930</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>87521</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -12396,8 +13739,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="16603426" y="5458261"/>
-              <a:ext cx="1802627" cy="2544848"/>
+              <a:off x="18400149" y="9226010"/>
+              <a:ext cx="1800638" cy="2460844"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -12429,16 +13772,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>277733</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>118963</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>108399</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>167344</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>264085</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>37446</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1304275</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>110017</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -12474,8 +13817,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5423843" y="7258799"/>
-              <a:ext cx="1802626" cy="2548948"/>
+              <a:off x="108399" y="5960963"/>
+              <a:ext cx="1800638" cy="2458483"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -12507,16 +13850,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>382479</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>26045</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>588099</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>86521</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>368832</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>127408</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>574452</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>30645</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -12552,8 +13895,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="18847931" y="5474867"/>
-              <a:ext cx="1802627" cy="2543938"/>
+              <a:off x="18440670" y="6654235"/>
+              <a:ext cx="1800639" cy="2459934"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -12585,16 +13928,111 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>437637</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>105998</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>459617</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>108855</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>90985</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>266096</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>181428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectángulo: esquinas redondeadas 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07570097-8B2B-35ED-3B04-5905F3A53A74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2673046" y="108855"/>
+          <a:ext cx="10607526" cy="6253240"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>907143</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12095</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9434286" cy="5249332"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>967619</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>166476</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>205619</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>120953</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12621,93 +14059,198 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>145142</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>157238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>120952</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133048</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rectángulo 2">
+        <xdr:cNvPr id="6" name="CuadroTexto 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{610D48B3-04AD-129A-329C-D0BF034A0C5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F3DA5E9-9EC5-6962-0444-C52D28A5B230}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7894320" y="411480"/>
-          <a:ext cx="6278880" cy="1325880"/>
+          <a:off x="4692952" y="157238"/>
+          <a:ext cx="5418667" cy="544286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="es-ES" sz="3200" b="1" cap="none" spc="0">
-              <a:ln w="6600">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="accent2"/>
-                </a:outerShdw>
-              </a:effectLst>
+            <a:rPr lang="es-ES" sz="2400">
+              <a:latin typeface="Abadi" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Analisis de Kiva </a:t>
+            <a:t>Ganancia</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="2400" baseline="0">
+              <a:latin typeface="Abadi" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> total </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="2400">
+              <a:latin typeface="Abadi" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>entre paises</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>350762</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>471715</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="CuadroTexto 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADE993BD-4A2D-B9FD-08E9-692E06E4E5CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13365238" y="84667"/>
+          <a:ext cx="7378096" cy="858762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="90000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400">
+              <a:effectLst/>
+              <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>total_paid y avg_payment parece estar muy correlacionado.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="2400">
+            <a:latin typeface="Abadi" panose="020B0604020104020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.45154</cdr:x>
+      <cdr:y>0.4129</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.54846</cdr:x>
+      <cdr:y>0.5871</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CCAD5D5-C0CF-1D25-10E0-63503B2F736D}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4259943" y="2167466"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="es-ES" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21466,7 +23009,7 @@
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="country" xr10:uid="{EAE812CB-7749-427E-A8BD-29AEB236A401}" cache="SegmentaciónDeDatos_country" caption="country" rowHeight="234950"/>
-  <slicer name="total_paid" xr10:uid="{FFEE9FF3-FE50-4171-8A48-280F6FA52976}" cache="SegmentaciónDeDatos_total_paid" caption="total_paid" startItem="399" rowHeight="234950"/>
+  <slicer name="total_paid" xr10:uid="{FFEE9FF3-FE50-4171-8A48-280F6FA52976}" cache="SegmentaciónDeDatos_total_paid" caption="total_paid" startItem="375" rowHeight="234950"/>
   <slicer name="rentals_count" xr10:uid="{44DFB1B2-F26E-4ABB-882A-266EB4A3B2A9}" cache="SegmentaciónDeDatos_rentals_count" caption="rentals_count" rowHeight="234950"/>
   <slicer name="avg_payment" xr10:uid="{963B6176-5416-4075-B1D2-8CE125E76478}" cache="SegmentaciónDeDatos_avg_payment" caption="avg_payment" rowHeight="234950"/>
 </slicers>
@@ -37474,20 +39017,20 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A18" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="13"/>
-    <col min="2" max="2" width="23.44140625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="13" customWidth="1"/>
-    <col min="4" max="32" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="8.88671875" style="12"/>
+    <col min="2" max="2" width="23.44140625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="11" customWidth="1"/>
+    <col min="4" max="32" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>1313</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -37495,132 +39038,137 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>1315</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="16" t="s">
         <v>1316</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>1317</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="17">
         <v>599</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="15" t="s">
         <v>1318</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="18">
         <v>67406.559999999998</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="15" t="s">
         <v>1319</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="19">
         <v>4.2</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+    </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="15" t="s">
         <v>1312</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="17">
         <v>6628.2800000000007</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="17">
         <v>5798.7400000000007</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="17">
         <v>4110.3200000000006</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="17">
         <v>3470.75</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="17">
         <v>3307.04</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="17">
         <v>3200.52</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="17">
         <v>3045.87</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="17">
         <v>2381.3200000000002</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="17">
         <v>1662.12</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="17">
         <v>1511.48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
-        <x14:slicer r:id="rId2"/>
+        <x14:slicer r:id="rId3"/>
       </x14:slicerList>
     </ext>
   </extLst>
@@ -37664,10 +39212,10 @@
       <c r="B3" s="5">
         <v>118.72</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="20">
         <v>28</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="20">
         <v>4.37</v>
       </c>
     </row>
@@ -37678,10 +39226,10 @@
       <c r="B4" s="5">
         <v>363.15999999999997</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="20">
         <v>86</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="20">
         <v>13.110000000000001</v>
       </c>
     </row>
@@ -37692,10 +39240,10 @@
       <c r="B5" s="5">
         <v>109.68</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="20">
         <v>26</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="20">
         <v>4.16</v>
       </c>
     </row>
@@ -37706,10 +39254,10 @@
       <c r="B6" s="5">
         <v>186.51</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="20">
         <v>46</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="20">
         <v>7.69</v>
       </c>
     </row>
@@ -37720,10 +39268,10 @@
       <c r="B7" s="5">
         <v>101.75</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="20">
         <v>25</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="20">
         <v>4.03</v>
       </c>
     </row>
@@ -37734,10 +39282,10 @@
       <c r="B8" s="5">
         <v>1413.55</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="20">
         <v>337</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="20">
         <v>53.690000000000012</v>
       </c>
     </row>
@@ -37748,10 +39296,10 @@
       <c r="B9" s="5">
         <v>151.66999999999999</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="20">
         <v>34</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="20">
         <v>4.91</v>
       </c>
     </row>
@@ -37762,10 +39310,10 @@
       <c r="B10" s="5">
         <v>369.07</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="20">
         <v>87</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="20">
         <v>13.219999999999999</v>
       </c>
     </row>
@@ -37776,10 +39324,10 @@
       <c r="B11" s="5">
         <v>215.47</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="20">
         <v>52</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="20">
         <v>8.2799999999999994</v>
       </c>
     </row>
@@ -37790,10 +39338,10 @@
       <c r="B12" s="5">
         <v>64.81</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="20">
         <v>16</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="20">
         <v>3.18</v>
       </c>
     </row>
@@ -37804,10 +39352,10 @@
       <c r="B13" s="5">
         <v>375.23</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="20">
         <v>88</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="20">
         <v>13.330000000000002</v>
       </c>
     </row>
@@ -37818,10 +39366,10 @@
       <c r="B14" s="5">
         <v>214.45000000000002</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="20">
         <v>51</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="20">
         <v>8.1999999999999993</v>
       </c>
     </row>
@@ -37832,10 +39380,10 @@
       <c r="B15" s="5">
         <v>190.53</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="20">
         <v>47</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="20">
         <v>7.7799999999999994</v>
       </c>
     </row>
@@ -37846,10 +39394,10 @@
       <c r="B16" s="5">
         <v>3197.400000000001</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="20">
         <v>761</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="20">
         <v>118.84</v>
       </c>
     </row>
@@ -37860,10 +39408,10 @@
       <c r="B17" s="5">
         <v>137.69999999999999</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="20">
         <v>32</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="20">
         <v>4.6900000000000004</v>
       </c>
     </row>
@@ -37874,10 +39422,10 @@
       <c r="B18" s="5">
         <v>199.57</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="20">
         <v>49</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="20">
         <v>8</v>
       </c>
     </row>
@@ -37888,10 +39436,10 @@
       <c r="B19" s="5">
         <v>205.5</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="20">
         <v>49</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="20">
         <v>8.06</v>
       </c>
     </row>
@@ -37902,10 +39450,10 @@
       <c r="B20" s="5">
         <v>208.55</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="20">
         <v>50</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="20">
         <v>8.18</v>
       </c>
     </row>
@@ -37916,10 +39464,10 @@
       <c r="B21" s="5">
         <v>502.78999999999996</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="20">
         <v>122</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="20">
         <v>19.940000000000001</v>
       </c>
     </row>
@@ -37930,10 +39478,10 @@
       <c r="B22" s="5">
         <v>82.78</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="20">
         <v>21</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="20">
         <v>3.64</v>
       </c>
     </row>
@@ -37944,10 +39492,10 @@
       <c r="B23" s="5">
         <v>332.19000000000005</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="20">
         <v>79</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="20">
         <v>12.419999999999998</v>
       </c>
     </row>
@@ -37958,10 +39506,10 @@
       <c r="B24" s="5">
         <v>5540.5700000000006</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="20">
         <v>1334</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="20">
         <v>214.68999999999997</v>
       </c>
     </row>
@@ -37972,10 +39520,10 @@
       <c r="B25" s="5">
         <v>699.30000000000007</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="20">
         <v>165</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="20">
         <v>25.690000000000005</v>
       </c>
     </row>
@@ -37986,10 +39534,10 @@
       <c r="B26" s="5">
         <v>203.51999999999998</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="20">
         <v>50</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="20">
         <v>8.0399999999999991</v>
       </c>
     </row>
@@ -38000,10 +39548,10 @@
       <c r="B27" s="5">
         <v>114.69</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="20">
         <v>27</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="20">
         <v>4.2699999999999996</v>
       </c>
     </row>
@@ -38014,10 +39562,10 @@
       <c r="B28" s="5">
         <v>309.27</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="20">
         <v>74</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="20">
         <v>12.14</v>
       </c>
     </row>
@@ -38028,10 +39576,10 @@
       <c r="B29" s="5">
         <v>270.34000000000003</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="20">
         <v>66</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="20">
         <v>11.25</v>
       </c>
     </row>
@@ -38042,10 +39590,10 @@
       <c r="B30" s="5">
         <v>647.44999999999993</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="20">
         <v>155</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="20">
         <v>24.720000000000006</v>
       </c>
     </row>
@@ -38056,10 +39604,10 @@
       <c r="B31" s="5">
         <v>95.75</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="20">
         <v>23</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="20">
         <v>3.89</v>
       </c>
     </row>
@@ -38070,10 +39618,10 @@
       <c r="B32" s="5">
         <v>100.74</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="20">
         <v>25</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="20">
         <v>3.99</v>
       </c>
     </row>
@@ -38084,10 +39632,10 @@
       <c r="B33" s="5">
         <v>109.73</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="20">
         <v>26</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="20">
         <v>4.16</v>
       </c>
     </row>
@@ -38098,10 +39646,10 @@
       <c r="B34" s="5">
         <v>110.75</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="20">
         <v>26</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="20">
         <v>4.2</v>
       </c>
     </row>
@@ -38112,10 +39660,10 @@
       <c r="B35" s="5">
         <v>515.79</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="20">
         <v>121</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="20">
         <v>18.060000000000002</v>
       </c>
     </row>
@@ -38126,10 +39674,10 @@
       <c r="B36" s="5">
         <v>143.68</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="20">
         <v>33</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="20">
         <v>4.7699999999999996</v>
       </c>
     </row>
@@ -38140,10 +39688,10 @@
       <c r="B37" s="5">
         <v>297.33000000000004</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="20">
         <v>68</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="20">
         <v>9.7100000000000009</v>
       </c>
     </row>
@@ -38154,10 +39702,10 @@
       <c r="B38" s="5">
         <v>68.790000000000006</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="20">
         <v>18</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="20">
         <v>3.28</v>
       </c>
     </row>
@@ -38168,10 +39716,10 @@
       <c r="B39" s="5">
         <v>827.08</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="20">
         <v>197</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="20">
         <v>30.360000000000003</v>
       </c>
     </row>
@@ -38182,10 +39730,10 @@
       <c r="B40" s="5">
         <v>253.39000000000001</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="20">
         <v>56</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="20">
         <v>8.36</v>
       </c>
     </row>
@@ -38196,10 +39744,10 @@
       <c r="B41" s="5">
         <v>119.73</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="20">
         <v>29</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="20">
         <v>4.3899999999999997</v>
       </c>
     </row>
@@ -38210,10 +39758,10 @@
       <c r="B42" s="5">
         <v>158.66</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="20">
         <v>35</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="20">
         <v>4.99</v>
       </c>
     </row>
@@ -38224,10 +39772,10 @@
       <c r="B43" s="5">
         <v>111.74</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="20">
         <v>27</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="20">
         <v>4.22</v>
       </c>
     </row>
@@ -38238,10 +39786,10 @@
       <c r="B44" s="5">
         <v>62.85</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="20">
         <v>16</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="20">
         <v>3.11</v>
       </c>
     </row>
@@ -38252,10 +39800,10 @@
       <c r="B45" s="5">
         <v>6991.5599999999968</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="20">
         <v>1655</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="20">
         <v>257.0499999999999</v>
       </c>
     </row>
@@ -38266,10 +39814,10 @@
       <c r="B46" s="5">
         <v>1434.6099999999997</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="20">
         <v>348</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="20">
         <v>56.329999999999991</v>
       </c>
     </row>
@@ -38280,10 +39828,10 @@
       <c r="B47" s="5">
         <v>956.87999999999988</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="20">
         <v>226</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="20">
         <v>34.6</v>
       </c>
     </row>
@@ -38294,10 +39842,10 @@
       <c r="B48" s="5">
         <v>71.77</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="20">
         <v>18</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="20">
         <v>3.36</v>
       </c>
     </row>
@@ -38308,10 +39856,10 @@
       <c r="B49" s="5">
         <v>464.89</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="20">
         <v>111</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="20">
         <v>17.11</v>
       </c>
     </row>
@@ -38322,10 +39870,10 @@
       <c r="B50" s="5">
         <v>733.28</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="20">
         <v>176</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="20">
         <v>28.43</v>
       </c>
     </row>
@@ -38336,10 +39884,10 @@
       <c r="B51" s="5">
         <v>3634.3800000000006</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="20">
         <v>856</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="20">
         <v>132.45999999999998</v>
       </c>
     </row>
@@ -38350,10 +39898,10 @@
       <c r="B52" s="5">
         <v>214.45</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="20">
         <v>51</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="20">
         <v>8.15</v>
       </c>
     </row>
@@ -38364,10 +39912,10 @@
       <c r="B53" s="5">
         <v>225.52</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="20">
         <v>54</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D53" s="20">
         <v>8.49</v>
       </c>
     </row>
@@ -38378,10 +39926,10 @@
       <c r="B54" s="5">
         <v>117.71</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="20">
         <v>28</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="20">
         <v>4.34</v>
       </c>
     </row>
@@ -38392,10 +39940,10 @@
       <c r="B55" s="5">
         <v>265.41999999999996</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="20">
         <v>62</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="20">
         <v>9.1199999999999992</v>
       </c>
     </row>
@@ -38406,10 +39954,10 @@
       <c r="B56" s="5">
         <v>145.66999999999999</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="20">
         <v>34</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="20">
         <v>4.8</v>
       </c>
     </row>
@@ -38420,10 +39968,10 @@
       <c r="B57" s="5">
         <v>76.83</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="20">
         <v>20</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="20">
         <v>3.51</v>
       </c>
     </row>
@@ -38434,10 +39982,10 @@
       <c r="B58" s="5">
         <v>139.71</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="20">
         <v>32</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="20">
         <v>4.72</v>
       </c>
     </row>
@@ -38448,10 +39996,10 @@
       <c r="B59" s="5">
         <v>126.72</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="20">
         <v>30</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="20">
         <v>4.49</v>
       </c>
     </row>
@@ -38462,10 +40010,10 @@
       <c r="B60" s="5">
         <v>382.09</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="20">
         <v>90</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="20">
         <v>13.44</v>
       </c>
     </row>
@@ -38476,10 +40024,10 @@
       <c r="B61" s="5">
         <v>3042.5400000000004</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C61" s="20">
         <v>735</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D61" s="20">
         <v>119.70000000000002</v>
       </c>
     </row>
@@ -38490,10 +40038,10 @@
       <c r="B62" s="5">
         <v>152.65</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C62" s="20">
         <v>34</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D62" s="20">
         <v>4.92</v>
       </c>
     </row>
@@ -38504,10 +40052,10 @@
       <c r="B63" s="5">
         <v>392.12</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C63" s="20">
         <v>91</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D63" s="20">
         <v>13.55</v>
       </c>
     </row>
@@ -38518,10 +40066,10 @@
       <c r="B64" s="5">
         <v>348.13</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C64" s="20">
         <v>83</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D64" s="20">
         <v>12.86</v>
       </c>
     </row>
@@ -38532,10 +40080,10 @@
       <c r="B65" s="5">
         <v>309.37</v>
       </c>
-      <c r="C65" s="11">
+      <c r="C65" s="20">
         <v>69</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D65" s="20">
         <v>9.5599999999999987</v>
       </c>
     </row>
@@ -38546,10 +40094,10 @@
       <c r="B66" s="5">
         <v>87.79</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C66" s="20">
         <v>22</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D66" s="20">
         <v>3.7</v>
       </c>
     </row>
@@ -38560,10 +40108,10 @@
       <c r="B67" s="5">
         <v>108.78</v>
       </c>
-      <c r="C67" s="11">
+      <c r="C67" s="20">
         <v>26</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D67" s="20">
         <v>4.16</v>
       </c>
     </row>
@@ -38574,10 +40122,10 @@
       <c r="B68" s="5">
         <v>551.66</v>
       </c>
-      <c r="C68" s="11">
+      <c r="C68" s="20">
         <v>132</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D68" s="20">
         <v>20.87</v>
       </c>
     </row>
@@ -38588,10 +40136,10 @@
       <c r="B69" s="5">
         <v>175.61</v>
       </c>
-      <c r="C69" s="11">
+      <c r="C69" s="20">
         <v>39</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D69" s="20">
         <v>5.22</v>
       </c>
     </row>
@@ -38602,10 +40150,10 @@
       <c r="B70" s="5">
         <v>1543.52</v>
       </c>
-      <c r="C70" s="11">
+      <c r="C70" s="20">
         <v>367</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D70" s="20">
         <v>56.320000000000014</v>
       </c>
     </row>
@@ -38616,10 +40164,10 @@
       <c r="B71" s="5">
         <v>127.71</v>
       </c>
-      <c r="C71" s="11">
+      <c r="C71" s="20">
         <v>30</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D71" s="20">
         <v>4.5</v>
       </c>
     </row>
@@ -38630,10 +40178,10 @@
       <c r="B72" s="5">
         <v>265.34000000000003</v>
       </c>
-      <c r="C72" s="11">
+      <c r="C72" s="20">
         <v>61</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D72" s="20">
         <v>8.9699999999999989</v>
       </c>
     </row>
@@ -38644,10 +40192,10 @@
       <c r="B73" s="5">
         <v>636.58000000000004</v>
       </c>
-      <c r="C73" s="11">
+      <c r="C73" s="20">
         <v>148</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D73" s="20">
         <v>22.34</v>
       </c>
     </row>
@@ -38658,10 +40206,10 @@
       <c r="B74" s="5">
         <v>343.29</v>
       </c>
-      <c r="C74" s="11">
+      <c r="C74" s="20">
         <v>83</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D74" s="20">
         <v>12.870000000000001</v>
       </c>
     </row>
@@ -38672,10 +40220,10 @@
       <c r="B75" s="5">
         <v>372.08</v>
       </c>
-      <c r="C75" s="11">
+      <c r="C75" s="20">
         <v>90</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D75" s="20">
         <v>15.3</v>
       </c>
     </row>
@@ -38686,10 +40234,10 @@
       <c r="B76" s="5">
         <v>2209.6400000000003</v>
       </c>
-      <c r="C76" s="11">
+      <c r="C76" s="20">
         <v>529</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D76" s="20">
         <v>83.44</v>
       </c>
     </row>
@@ -38700,10 +40248,10 @@
       <c r="B77" s="5">
         <v>771.94999999999993</v>
       </c>
-      <c r="C77" s="11">
+      <c r="C77" s="20">
         <v>187</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D77" s="20">
         <v>31.110000000000003</v>
       </c>
     </row>
@@ -38714,10 +40262,10 @@
       <c r="B78" s="5">
         <v>216.51</v>
       </c>
-      <c r="C78" s="11">
+      <c r="C78" s="20">
         <v>52</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D78" s="20">
         <v>8.31</v>
       </c>
     </row>
@@ -38728,10 +40276,10 @@
       <c r="B79" s="5">
         <v>128.72999999999999</v>
       </c>
-      <c r="C79" s="11">
+      <c r="C79" s="20">
         <v>30</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D79" s="20">
         <v>4.5199999999999996</v>
       </c>
     </row>
@@ -38742,10 +40290,10 @@
       <c r="B80" s="5">
         <v>192.54000000000002</v>
       </c>
-      <c r="C80" s="11">
+      <c r="C80" s="20">
         <v>47</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D80" s="20">
         <v>7.8</v>
       </c>
     </row>
@@ -38756,10 +40304,10 @@
       <c r="B81" s="5">
         <v>3246.9600000000005</v>
       </c>
-      <c r="C81" s="11">
+      <c r="C81" s="20">
         <v>771</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D81" s="20">
         <v>119.53999999999996</v>
       </c>
     </row>
@@ -38770,10 +40318,10 @@
       <c r="B82" s="5">
         <v>108.72</v>
       </c>
-      <c r="C82" s="11">
+      <c r="C82" s="20">
         <v>26</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D82" s="20">
         <v>4.1500000000000004</v>
       </c>
     </row>
@@ -38784,10 +40332,10 @@
       <c r="B83" s="5">
         <v>634.59</v>
       </c>
-      <c r="C83" s="11">
+      <c r="C83" s="20">
         <v>149</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D83" s="20">
         <v>22.38</v>
       </c>
     </row>
@@ -38798,10 +40346,10 @@
       <c r="B84" s="5">
         <v>93.78</v>
       </c>
-      <c r="C84" s="11">
+      <c r="C84" s="20">
         <v>23</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D84" s="20">
         <v>3.86</v>
       </c>
     </row>
@@ -38812,10 +40360,10 @@
       <c r="B85" s="5">
         <v>104.74</v>
       </c>
-      <c r="C85" s="11">
+      <c r="C85" s="20">
         <v>25</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D85" s="20">
         <v>4.09</v>
       </c>
     </row>
@@ -38826,10 +40374,10 @@
       <c r="B86" s="5">
         <v>1302.96</v>
       </c>
-      <c r="C86" s="11">
+      <c r="C86" s="20">
         <v>309</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D86" s="20">
         <v>47.45000000000001</v>
       </c>
     </row>
@@ -38840,10 +40388,10 @@
       <c r="B87" s="5">
         <v>589.69000000000005</v>
       </c>
-      <c r="C87" s="11">
+      <c r="C87" s="20">
         <v>141</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D87" s="20">
         <v>21.64</v>
       </c>
     </row>
@@ -38854,10 +40402,10 @@
       <c r="B88" s="5">
         <v>531.62</v>
       </c>
-      <c r="C88" s="11">
+      <c r="C88" s="20">
         <v>129</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D88" s="20">
         <v>20.46</v>
       </c>
     </row>
@@ -38868,10 +40416,10 @@
       <c r="B89" s="5">
         <v>99.73</v>
       </c>
-      <c r="C89" s="11">
+      <c r="C89" s="20">
         <v>24</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D89" s="20">
         <v>3.96</v>
       </c>
     </row>
@@ -38882,10 +40430,10 @@
       <c r="B90" s="5">
         <v>248.36</v>
       </c>
-      <c r="C90" s="11">
+      <c r="C90" s="20">
         <v>59</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D90" s="20">
         <v>8.84</v>
       </c>
     </row>
@@ -38896,10 +40444,10 @@
       <c r="B91" s="5">
         <v>142.69999999999999</v>
       </c>
-      <c r="C91" s="11">
+      <c r="C91" s="20">
         <v>33</v>
       </c>
-      <c r="D91" s="11">
+      <c r="D91" s="20">
         <v>4.7699999999999996</v>
       </c>
     </row>
@@ -38910,10 +40458,10 @@
       <c r="B92" s="5">
         <v>323.25</v>
       </c>
-      <c r="C92" s="11">
+      <c r="C92" s="20">
         <v>77</v>
       </c>
-      <c r="D92" s="11">
+      <c r="D92" s="20">
         <v>12.329999999999998</v>
       </c>
     </row>
@@ -38924,10 +40472,10 @@
       <c r="B93" s="5">
         <v>1167.2699999999998</v>
       </c>
-      <c r="C93" s="11">
+      <c r="C93" s="20">
         <v>272</v>
       </c>
-      <c r="D93" s="11">
+      <c r="D93" s="20">
         <v>42.13</v>
       </c>
     </row>
@@ -38938,10 +40486,10 @@
       <c r="B94" s="5">
         <v>333.17</v>
       </c>
-      <c r="C94" s="11">
+      <c r="C94" s="20">
         <v>79</v>
       </c>
-      <c r="D94" s="11">
+      <c r="D94" s="20">
         <v>12.59</v>
       </c>
     </row>
@@ -38952,10 +40500,10 @@
       <c r="B95" s="5">
         <v>391.12</v>
       </c>
-      <c r="C95" s="11">
+      <c r="C95" s="20">
         <v>91</v>
       </c>
-      <c r="D95" s="11">
+      <c r="D95" s="20">
         <v>13.590000000000002</v>
       </c>
     </row>
@@ -38966,10 +40514,10 @@
       <c r="B96" s="5">
         <v>106.65</v>
       </c>
-      <c r="C96" s="11">
+      <c r="C96" s="20">
         <v>26</v>
       </c>
-      <c r="D96" s="11">
+      <c r="D96" s="20">
         <v>4.1100000000000003</v>
       </c>
     </row>
@@ -38980,10 +40528,10 @@
       <c r="B97" s="5">
         <v>107.71</v>
       </c>
-      <c r="C97" s="11">
+      <c r="C97" s="20">
         <v>26</v>
       </c>
-      <c r="D97" s="11">
+      <c r="D97" s="20">
         <v>4.13</v>
       </c>
     </row>
@@ -38994,10 +40542,10 @@
       <c r="B98" s="5">
         <v>1653.1299999999999</v>
       </c>
-      <c r="C98" s="11">
+      <c r="C98" s="20">
         <v>395</v>
       </c>
-      <c r="D98" s="11">
+      <c r="D98" s="20">
         <v>62.249999999999993</v>
       </c>
     </row>
@@ -39008,10 +40556,10 @@
       <c r="B99" s="5">
         <v>120.74</v>
       </c>
-      <c r="C99" s="11">
+      <c r="C99" s="20">
         <v>29</v>
       </c>
-      <c r="D99" s="11">
+      <c r="D99" s="20">
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -39022,10 +40570,10 @@
       <c r="B100" s="5">
         <v>135.68</v>
       </c>
-      <c r="C100" s="11">
+      <c r="C100" s="20">
         <v>32</v>
       </c>
-      <c r="D100" s="11">
+      <c r="D100" s="20">
         <v>4.6399999999999997</v>
       </c>
     </row>
@@ -39036,10 +40584,10 @@
       <c r="B101" s="5">
         <v>667.42000000000007</v>
       </c>
-      <c r="C101" s="11">
+      <c r="C101" s="20">
         <v>160</v>
       </c>
-      <c r="D101" s="11">
+      <c r="D101" s="20">
         <v>25.130000000000003</v>
       </c>
     </row>
@@ -39050,10 +40598,10 @@
       <c r="B102" s="5">
         <v>342.23</v>
       </c>
-      <c r="C102" s="11">
+      <c r="C102" s="20">
         <v>82</v>
       </c>
-      <c r="D102" s="11">
+      <c r="D102" s="20">
         <v>12.740000000000002</v>
       </c>
     </row>
@@ -39064,10 +40612,10 @@
       <c r="B103" s="5">
         <v>967.66</v>
       </c>
-      <c r="C103" s="11">
+      <c r="C103" s="20">
         <v>232</v>
       </c>
-      <c r="D103" s="11">
+      <c r="D103" s="20">
         <v>36.72</v>
       </c>
     </row>
@@ -39078,10 +40626,10 @@
       <c r="B104" s="5">
         <v>4299.76</v>
       </c>
-      <c r="C104" s="11">
+      <c r="C104" s="20">
         <v>1013</v>
       </c>
-      <c r="D104" s="11">
+      <c r="D104" s="20">
         <v>154.97999999999996</v>
       </c>
     </row>
@@ -39092,10 +40640,10 @@
       <c r="B105" s="5">
         <v>756.25000000000011</v>
       </c>
-      <c r="C105" s="11">
+      <c r="C105" s="20">
         <v>183</v>
       </c>
-      <c r="D105" s="11">
+      <c r="D105" s="20">
         <v>28.830000000000002</v>
       </c>
     </row>
@@ -39106,10 +40654,10 @@
       <c r="B106" s="5">
         <v>575.68000000000006</v>
       </c>
-      <c r="C106" s="11">
+      <c r="C106" s="20">
         <v>141</v>
       </c>
-      <c r="D106" s="11">
+      <c r="D106" s="20">
         <v>23.37</v>
       </c>
     </row>
@@ -39120,10 +40668,10 @@
       <c r="B107" s="5">
         <v>99.75</v>
       </c>
-      <c r="C107" s="11">
+      <c r="C107" s="20">
         <v>24</v>
       </c>
-      <c r="D107" s="11">
+      <c r="D107" s="20">
         <v>3.96</v>
       </c>
     </row>
@@ -39134,10 +40682,10 @@
       <c r="B108" s="5">
         <v>442.83000000000004</v>
       </c>
-      <c r="C108" s="11">
+      <c r="C108" s="20">
         <v>107</v>
       </c>
-      <c r="D108" s="11">
+      <c r="D108" s="20">
         <v>16.799999999999997</v>
       </c>
     </row>
@@ -39148,10 +40696,10 @@
       <c r="B109" s="5">
         <v>256.37</v>
       </c>
-      <c r="C109" s="11">
+      <c r="C109" s="20">
         <v>60</v>
       </c>
-      <c r="D109" s="11">
+      <c r="D109" s="20">
         <v>8.77</v>
       </c>
     </row>
@@ -39162,10 +40710,10 @@
       <c r="B110" s="5">
         <v>95.78</v>
       </c>
-      <c r="C110" s="11">
+      <c r="C110" s="20">
         <v>23</v>
       </c>
-      <c r="D110" s="11">
+      <c r="D110" s="20">
         <v>3.91</v>
       </c>
     </row>
@@ -39176,10 +40724,10 @@
       <c r="B111" s="5">
         <v>67406.559999999998</v>
       </c>
-      <c r="C111" s="11">
+      <c r="C111" s="20">
         <v>16044</v>
       </c>
-      <c r="D111" s="11">
+      <c r="D111" s="20">
         <v>2514.9499999999994</v>
       </c>
     </row>
